--- a/pyees/testData/data2.xlsx
+++ b/pyees/testData/data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ymerdkdc01\folder redirections\DJAVE\My Documents\GitHub\dataUncert\dataUncert\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ymerdkdc01\folder redirections\DJAVE\My Documents\GitHub\pyees\pyees\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD6B196-1D23-4D09-B0C0-835F9AE84883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B37075-6C27-4A8B-B569-34406D4FB6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5F6BAB0-B9A3-4FB8-B84A-62DE77F5D537}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -398,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4894F4A-9552-457D-9B25-E4ED232859CE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -419,8 +419,14 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -433,8 +439,14 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -447,8 +459,15 @@
       <c r="D3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>C3^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -461,8 +480,15 @@
       <c r="D4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>D3^2</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -475,8 +501,15 @@
       <c r="D5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f>C4^2</f>
+        <v>0.36</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -489,8 +522,15 @@
       <c r="D6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>D4^2</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -502,6 +542,58 @@
       </c>
       <c r="D7">
         <v>0.25</v>
+      </c>
+      <c r="G7">
+        <f>C5^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>D5^2</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>C6^2</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>D6^2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f>C7^2</f>
+        <v>0.81</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>D7^2</f>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
